--- a/Casos de Test.xlsx
+++ b/Casos de Test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zajialopez/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zajialopez/Desktop/proyecto_final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83F16860-0700-D546-92EF-497363B33F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165216D7-1CF9-424C-939F-BA6FB3878778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{BCD56C2B-7EFC-4439-B006-08DEE2259B23}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15620" xr2:uid="{BCD56C2B-7EFC-4439-B006-08DEE2259B23}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -97,9 +97,6 @@
     <t>Login Requerido</t>
   </si>
   <si>
-    <t>Proyecto Final Coder House Python (Comisión 55630)</t>
-  </si>
-  <si>
     <t>Redirigen a la página esperada</t>
   </si>
   <si>
@@ -196,7 +193,10 @@
     <t>Cuando el usuario no esté autenticado, este será solicitado que inicie sesión para visitar las distintas páginas. Las únicas secciones que se pueden navegar sin haber realizado inicio de sesión son "Inicio" y "Acerca de mí".</t>
   </si>
   <si>
-    <t>Proyecto final</t>
+    <t>Versión 1.0</t>
+  </si>
+  <si>
+    <t>Proyecto Final Coder House Python DreamChopper (Comisión 55630)</t>
   </si>
 </sst>
 </file>
@@ -588,14 +588,14 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="159" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="39.6640625" customWidth="1"/>
+    <col min="3" max="3" width="44" customWidth="1"/>
     <col min="4" max="4" width="37.1640625" customWidth="1"/>
     <col min="5" max="5" width="36.5" customWidth="1"/>
     <col min="6" max="6" width="22.6640625" customWidth="1"/>
@@ -606,14 +606,14 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F1" s="7"/>
     </row>
@@ -629,7 +629,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F2" s="7"/>
     </row>
@@ -638,14 +638,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="7"/>
     </row>
@@ -654,7 +654,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="1" t="s">
@@ -693,10 +693,10 @@
         <v>45170</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>14</v>
@@ -713,10 +713,10 @@
         <v>45170</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>14</v>
@@ -733,13 +733,13 @@
         <v>45170</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="E9" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>15</v>
@@ -753,13 +753,13 @@
         <v>45170</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>15</v>
@@ -773,13 +773,13 @@
         <v>45170</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>15</v>
@@ -793,13 +793,13 @@
         <v>45170</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>15</v>
@@ -816,10 +816,10 @@
         <v>17</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>15</v>
@@ -833,16 +833,16 @@
         <v>45170</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -853,16 +853,16 @@
         <v>45170</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="F15" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -873,16 +873,16 @@
         <v>45170</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="F16" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -896,10 +896,10 @@
         <v>18</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>15</v>
@@ -916,10 +916,10 @@
         <v>19</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>15</v>
